--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.010139</v>
+        <v>1.106594</v>
       </c>
       <c r="H2">
-        <v>0.030417</v>
+        <v>3.319782</v>
       </c>
       <c r="I2">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="J2">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.010139</v>
+        <v>1.106594</v>
       </c>
       <c r="N2">
-        <v>0.030417</v>
+        <v>3.319782</v>
       </c>
       <c r="O2">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="P2">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="Q2">
-        <v>0.000102799321</v>
+        <v>1.224550280836</v>
       </c>
       <c r="R2">
-        <v>0.0009251938890000002</v>
+        <v>11.020952527524</v>
       </c>
       <c r="S2">
-        <v>7.711646107621056E-10</v>
+        <v>7.329134474251607E-06</v>
       </c>
       <c r="T2">
-        <v>7.711646107621056E-10</v>
+        <v>7.329134474251607E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.010139</v>
+        <v>1.106594</v>
       </c>
       <c r="H3">
-        <v>0.030417</v>
+        <v>3.319782</v>
       </c>
       <c r="I3">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="J3">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>119.0584436666667</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="N3">
-        <v>357.175331</v>
+        <v>326.00035</v>
       </c>
       <c r="O3">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="P3">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="Q3">
-        <v>1.207133560336334</v>
+        <v>120.2500104359667</v>
       </c>
       <c r="R3">
-        <v>10.864202043027</v>
+        <v>1082.2500939237</v>
       </c>
       <c r="S3">
-        <v>9.055494463768327E-06</v>
+        <v>0.0007197160547900707</v>
       </c>
       <c r="T3">
-        <v>9.055494463768327E-06</v>
+        <v>0.0007197160547900707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.106594</v>
+      </c>
+      <c r="H4">
+        <v>3.319782</v>
+      </c>
+      <c r="I4">
+        <v>0.002707237424802562</v>
+      </c>
+      <c r="J4">
+        <v>0.002707237424802562</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.010139</v>
-      </c>
-      <c r="H4">
-        <v>0.030417</v>
-      </c>
-      <c r="I4">
-        <v>2.776985075152738E-05</v>
-      </c>
-      <c r="J4">
-        <v>2.776985075152738E-05</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>126.917496</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="N4">
-        <v>380.752488</v>
+        <v>0.100381</v>
       </c>
       <c r="O4">
-        <v>0.3476161279887141</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="P4">
-        <v>0.3476161279887141</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="Q4">
-        <v>1.286816491944</v>
+        <v>0.03702700410466667</v>
       </c>
       <c r="R4">
-        <v>11.581348427496</v>
+        <v>0.333243036942</v>
       </c>
       <c r="S4">
-        <v>9.653247993070429E-06</v>
+        <v>2.21612698562692E-07</v>
       </c>
       <c r="T4">
-        <v>9.653247993070427E-06</v>
+        <v>2.216126985626919E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.010139</v>
+        <v>1.106594</v>
       </c>
       <c r="H5">
-        <v>0.030417</v>
+        <v>3.319782</v>
       </c>
       <c r="I5">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="J5">
-        <v>2.776985075152738E-05</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,90 +741,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>119.1221133333333</v>
+        <v>116.0929133333333</v>
       </c>
       <c r="N5">
-        <v>357.36634</v>
+        <v>348.27874</v>
       </c>
       <c r="O5">
-        <v>0.3262652439563266</v>
+        <v>0.2840166128953892</v>
       </c>
       <c r="P5">
-        <v>0.3262652439563266</v>
+        <v>0.2840166128953892</v>
       </c>
       <c r="Q5">
-        <v>1.207779107086667</v>
+        <v>128.4677213371867</v>
       </c>
       <c r="R5">
-        <v>10.87001196378</v>
+        <v>1156.20949203468</v>
       </c>
       <c r="S5">
-        <v>9.06033713007786E-06</v>
+        <v>0.0007689004036960596</v>
       </c>
       <c r="T5">
-        <v>9.06033713007786E-06</v>
+        <v>0.0007689004036960596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>119.0584436666667</v>
+        <v>1.106594</v>
       </c>
       <c r="H6">
-        <v>357.175331</v>
+        <v>3.319782</v>
       </c>
       <c r="I6">
-        <v>0.3260908582042078</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="J6">
-        <v>0.3260908582042078</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.010139</v>
+        <v>182.8542023333333</v>
       </c>
       <c r="N6">
-        <v>0.030417</v>
+        <v>548.5626070000001</v>
       </c>
       <c r="O6">
-        <v>2.776985075152738E-05</v>
+        <v>0.447345403860151</v>
       </c>
       <c r="P6">
-        <v>2.776985075152738E-05</v>
+        <v>0.4473454038601511</v>
       </c>
       <c r="Q6">
-        <v>1.207133560336334</v>
+        <v>202.3453631768527</v>
       </c>
       <c r="R6">
-        <v>10.864202043027</v>
+        <v>1821.108268591674</v>
       </c>
       <c r="S6">
-        <v>9.055494463768327E-06</v>
+        <v>0.001211070219143617</v>
       </c>
       <c r="T6">
-        <v>9.055494463768327E-06</v>
+        <v>0.001211070219143618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>119.0584436666667</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="H7">
-        <v>357.175331</v>
+        <v>326.00035</v>
       </c>
       <c r="I7">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="J7">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>119.0584436666667</v>
+        <v>1.106594</v>
       </c>
       <c r="N7">
-        <v>357.175331</v>
+        <v>3.319782</v>
       </c>
       <c r="O7">
-        <v>0.3260908582042078</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="P7">
-        <v>0.3260908582042078</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="Q7">
-        <v>14174.91300832884</v>
+        <v>120.2500104359667</v>
       </c>
       <c r="R7">
-        <v>127574.2170749596</v>
+        <v>1082.2500939237</v>
       </c>
       <c r="S7">
-        <v>0.1063352478043568</v>
+        <v>0.0007197160547900707</v>
       </c>
       <c r="T7">
-        <v>0.1063352478043568</v>
+        <v>0.0007197160547900707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>119.0584436666667</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="H8">
-        <v>357.175331</v>
+        <v>326.00035</v>
       </c>
       <c r="I8">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="J8">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>126.917496</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="N8">
-        <v>380.752488</v>
+        <v>326.00035</v>
       </c>
       <c r="O8">
-        <v>0.3476161279887141</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="P8">
-        <v>0.3476161279887141</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="Q8">
-        <v>15110.59954783039</v>
+        <v>11808.46980001361</v>
       </c>
       <c r="R8">
-        <v>135995.3959304735</v>
+        <v>106276.2282001225</v>
       </c>
       <c r="S8">
-        <v>0.1133544415014635</v>
+        <v>0.07067563043663176</v>
       </c>
       <c r="T8">
-        <v>0.1133544415014635</v>
+        <v>0.07067563043663176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,60 +971,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>119.0584436666667</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="H9">
-        <v>357.175331</v>
+        <v>326.00035</v>
       </c>
       <c r="I9">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="J9">
-        <v>0.3260908582042078</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>119.1221133333333</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="N9">
-        <v>357.36634</v>
+        <v>0.100381</v>
       </c>
       <c r="O9">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="P9">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="Q9">
-        <v>14182.49341975095</v>
+        <v>3.636026792594445</v>
       </c>
       <c r="R9">
-        <v>127642.4407777585</v>
+        <v>32.72424113335</v>
       </c>
       <c r="S9">
-        <v>0.1063921134039238</v>
+        <v>2.176221730700452E-05</v>
       </c>
       <c r="T9">
-        <v>0.1063921134039238</v>
+        <v>2.176221730700452E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1030,61 +1033,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.917496</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="H10">
-        <v>380.752488</v>
+        <v>326.00035</v>
       </c>
       <c r="I10">
-        <v>0.3476161279887141</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="J10">
-        <v>0.3476161279887141</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.010139</v>
+        <v>116.0929133333333</v>
       </c>
       <c r="N10">
-        <v>0.030417</v>
+        <v>348.27874</v>
       </c>
       <c r="O10">
-        <v>2.776985075152738E-05</v>
+        <v>0.2840166128953892</v>
       </c>
       <c r="P10">
-        <v>2.776985075152738E-05</v>
+        <v>0.2840166128953892</v>
       </c>
       <c r="Q10">
-        <v>1.286816491944</v>
+        <v>12615.44345972878</v>
       </c>
       <c r="R10">
-        <v>11.581348427496</v>
+        <v>113538.991137559</v>
       </c>
       <c r="S10">
-        <v>9.653247993070429E-06</v>
+        <v>0.07550550027684251</v>
       </c>
       <c r="T10">
-        <v>9.653247993070427E-06</v>
+        <v>0.07550550027684251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1092,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.917496</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="H11">
-        <v>380.752488</v>
+        <v>326.00035</v>
       </c>
       <c r="I11">
-        <v>0.3476161279887141</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="J11">
-        <v>0.3476161279887141</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>119.0584436666667</v>
+        <v>182.8542023333333</v>
       </c>
       <c r="N11">
-        <v>357.175331</v>
+        <v>548.5626070000001</v>
       </c>
       <c r="O11">
-        <v>0.3260908582042078</v>
+        <v>0.447345403860151</v>
       </c>
       <c r="P11">
-        <v>0.3260908582042078</v>
+        <v>0.4473454038601511</v>
       </c>
       <c r="Q11">
-        <v>15110.59954783039</v>
+        <v>19870.17798654583</v>
       </c>
       <c r="R11">
-        <v>135995.3959304735</v>
+        <v>178831.6018789125</v>
       </c>
       <c r="S11">
-        <v>0.1133544415014635</v>
+        <v>0.1189262774830986</v>
       </c>
       <c r="T11">
-        <v>0.1133544415014635</v>
+        <v>0.1189262774830986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1139,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>126.917496</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="H12">
-        <v>380.752488</v>
+        <v>0.100381</v>
       </c>
       <c r="I12">
-        <v>0.3476161279887141</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="J12">
-        <v>0.3476161279887141</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>126.917496</v>
+        <v>1.106594</v>
       </c>
       <c r="N12">
-        <v>380.752488</v>
+        <v>3.319782</v>
       </c>
       <c r="O12">
-        <v>0.3476161279887141</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="P12">
-        <v>0.3476161279887141</v>
+        <v>0.002707237424802562</v>
       </c>
       <c r="Q12">
-        <v>16108.05079091001</v>
+        <v>0.03702700410466667</v>
       </c>
       <c r="R12">
-        <v>144972.4571181901</v>
+        <v>0.333243036942</v>
       </c>
       <c r="S12">
-        <v>0.1208369724378661</v>
+        <v>2.21612698562692E-07</v>
       </c>
       <c r="T12">
-        <v>0.120836972437866</v>
+        <v>2.216126985626919E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1201,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>126.917496</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="H13">
-        <v>380.752488</v>
+        <v>0.100381</v>
       </c>
       <c r="I13">
-        <v>0.3476161279887141</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="J13">
-        <v>0.3476161279887141</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,60 +1237,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>119.1221133333333</v>
+        <v>108.6667833333333</v>
       </c>
       <c r="N13">
-        <v>357.36634</v>
+        <v>326.00035</v>
       </c>
       <c r="O13">
-        <v>0.3262652439563266</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="P13">
-        <v>0.3262652439563266</v>
+        <v>0.2658488864686699</v>
       </c>
       <c r="Q13">
-        <v>15118.68034249488</v>
+        <v>3.636026792594445</v>
       </c>
       <c r="R13">
-        <v>136068.1230824539</v>
+        <v>32.72424113335</v>
       </c>
       <c r="S13">
-        <v>0.1134150608013915</v>
+        <v>2.176221730700452E-05</v>
       </c>
       <c r="T13">
-        <v>0.1134150608013915</v>
+        <v>2.176221730700452E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>119.1221133333333</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="H14">
-        <v>357.36634</v>
+        <v>0.100381</v>
       </c>
       <c r="I14">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="J14">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1296,60 +1299,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.010139</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="N14">
-        <v>0.030417</v>
+        <v>0.100381</v>
       </c>
       <c r="O14">
-        <v>2.776985075152738E-05</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="P14">
-        <v>2.776985075152738E-05</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="Q14">
-        <v>1.207779107086667</v>
+        <v>0.001119593906777778</v>
       </c>
       <c r="R14">
-        <v>10.87001196378</v>
+        <v>0.010076345161</v>
       </c>
       <c r="S14">
-        <v>9.06033713007786E-06</v>
+        <v>6.700953344051382E-09</v>
       </c>
       <c r="T14">
-        <v>9.06033713007786E-06</v>
+        <v>6.700953344051379E-09</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>119.1221133333333</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="H15">
-        <v>357.36634</v>
+        <v>0.100381</v>
       </c>
       <c r="I15">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="J15">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,60 +1361,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>119.0584436666667</v>
+        <v>116.0929133333333</v>
       </c>
       <c r="N15">
-        <v>357.175331</v>
+        <v>348.27874</v>
       </c>
       <c r="O15">
-        <v>0.3260908582042078</v>
+        <v>0.2840166128953892</v>
       </c>
       <c r="P15">
-        <v>0.3260908582042078</v>
+        <v>0.2840166128953892</v>
       </c>
       <c r="Q15">
-        <v>14182.49341975095</v>
+        <v>3.884507577771111</v>
       </c>
       <c r="R15">
-        <v>127642.4407777585</v>
+        <v>34.96056819994</v>
       </c>
       <c r="S15">
-        <v>0.1063921134039238</v>
+        <v>2.324941560120941E-05</v>
       </c>
       <c r="T15">
-        <v>0.1063921134039238</v>
+        <v>2.32494156012094E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>119.1221133333333</v>
+        <v>0.03346033333333333</v>
       </c>
       <c r="H16">
-        <v>357.36634</v>
+        <v>0.100381</v>
       </c>
       <c r="I16">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723531E-05</v>
       </c>
       <c r="J16">
-        <v>0.3262652439563266</v>
+        <v>8.185935098723529E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>126.917496</v>
+        <v>182.8542023333333</v>
       </c>
       <c r="N16">
-        <v>380.752488</v>
+        <v>548.5626070000001</v>
       </c>
       <c r="O16">
-        <v>0.3476161279887141</v>
+        <v>0.447345403860151</v>
       </c>
       <c r="P16">
-        <v>0.3476161279887141</v>
+        <v>0.4473454038601511</v>
       </c>
       <c r="Q16">
-        <v>15118.68034249488</v>
+        <v>6.118362561474112</v>
       </c>
       <c r="R16">
-        <v>136068.1230824539</v>
+        <v>55.065263053267</v>
       </c>
       <c r="S16">
-        <v>0.1134150608013915</v>
+        <v>3.661940442711463E-05</v>
       </c>
       <c r="T16">
-        <v>0.1134150608013915</v>
+        <v>3.661940442711463E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1449,61 +1452,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="H17">
+        <v>348.27874</v>
+      </c>
+      <c r="I17">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="J17">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.106594</v>
+      </c>
+      <c r="N17">
+        <v>3.319782</v>
+      </c>
+      <c r="O17">
+        <v>0.002707237424802562</v>
+      </c>
+      <c r="P17">
+        <v>0.002707237424802562</v>
+      </c>
+      <c r="Q17">
+        <v>128.4677213371867</v>
+      </c>
+      <c r="R17">
+        <v>1156.20949203468</v>
+      </c>
+      <c r="S17">
+        <v>0.0007689004036960596</v>
+      </c>
+      <c r="T17">
+        <v>0.0007689004036960596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="H18">
+        <v>348.27874</v>
+      </c>
+      <c r="I18">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="J18">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>108.6667833333333</v>
+      </c>
+      <c r="N18">
+        <v>326.00035</v>
+      </c>
+      <c r="O18">
+        <v>0.2658488864686699</v>
+      </c>
+      <c r="P18">
+        <v>0.2658488864686699</v>
+      </c>
+      <c r="Q18">
+        <v>12615.44345972878</v>
+      </c>
+      <c r="R18">
+        <v>113538.991137559</v>
+      </c>
+      <c r="S18">
+        <v>0.07550550027684251</v>
+      </c>
+      <c r="T18">
+        <v>0.07550550027684251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="H19">
+        <v>348.27874</v>
+      </c>
+      <c r="I19">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="J19">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03346033333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.100381</v>
+      </c>
+      <c r="O19">
+        <v>8.185935098723531E-05</v>
+      </c>
+      <c r="P19">
+        <v>8.185935098723529E-05</v>
+      </c>
+      <c r="Q19">
+        <v>3.884507577771111</v>
+      </c>
+      <c r="R19">
+        <v>34.96056819994</v>
+      </c>
+      <c r="S19">
+        <v>2.324941560120941E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.32494156012094E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="H20">
+        <v>348.27874</v>
+      </c>
+      <c r="I20">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="J20">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="N20">
+        <v>348.27874</v>
+      </c>
+      <c r="O20">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="P20">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="Q20">
+        <v>13477.56452622084</v>
+      </c>
+      <c r="R20">
+        <v>121298.0807359876</v>
+      </c>
+      <c r="S20">
+        <v>0.08066543640056936</v>
+      </c>
+      <c r="T20">
+        <v>0.08066543640056936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="H21">
+        <v>348.27874</v>
+      </c>
+      <c r="I21">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="J21">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="N21">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="O21">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="P21">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="Q21">
+        <v>21228.07706411946</v>
+      </c>
+      <c r="R21">
+        <v>191052.6935770752</v>
+      </c>
+      <c r="S21">
+        <v>0.1270535263986801</v>
+      </c>
+      <c r="T21">
+        <v>0.1270535263986801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="H22">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="I22">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="J22">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.106594</v>
+      </c>
+      <c r="N22">
+        <v>3.319782</v>
+      </c>
+      <c r="O22">
+        <v>0.002707237424802562</v>
+      </c>
+      <c r="P22">
+        <v>0.002707237424802562</v>
+      </c>
+      <c r="Q22">
+        <v>202.3453631768527</v>
+      </c>
+      <c r="R22">
+        <v>1821.108268591674</v>
+      </c>
+      <c r="S22">
+        <v>0.001211070219143617</v>
+      </c>
+      <c r="T22">
+        <v>0.001211070219143618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="H23">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="I23">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="J23">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>108.6667833333333</v>
+      </c>
+      <c r="N23">
+        <v>326.00035</v>
+      </c>
+      <c r="O23">
+        <v>0.2658488864686699</v>
+      </c>
+      <c r="P23">
+        <v>0.2658488864686699</v>
+      </c>
+      <c r="Q23">
+        <v>19870.17798654583</v>
+      </c>
+      <c r="R23">
+        <v>178831.6018789125</v>
+      </c>
+      <c r="S23">
+        <v>0.1189262774830986</v>
+      </c>
+      <c r="T23">
+        <v>0.1189262774830986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="H24">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="I24">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="J24">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03346033333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.100381</v>
+      </c>
+      <c r="O24">
+        <v>8.185935098723531E-05</v>
+      </c>
+      <c r="P24">
+        <v>8.185935098723529E-05</v>
+      </c>
+      <c r="Q24">
+        <v>6.118362561474112</v>
+      </c>
+      <c r="R24">
+        <v>55.065263053267</v>
+      </c>
+      <c r="S24">
+        <v>3.661940442711463E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.661940442711463E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>119.1221133333333</v>
-      </c>
-      <c r="H17">
-        <v>357.36634</v>
-      </c>
-      <c r="I17">
-        <v>0.3262652439563266</v>
-      </c>
-      <c r="J17">
-        <v>0.3262652439563266</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>119.1221133333333</v>
-      </c>
-      <c r="N17">
-        <v>357.36634</v>
-      </c>
-      <c r="O17">
-        <v>0.3262652439563266</v>
-      </c>
-      <c r="P17">
-        <v>0.3262652439563266</v>
-      </c>
-      <c r="Q17">
-        <v>14190.07788499951</v>
-      </c>
-      <c r="R17">
-        <v>127710.7009649956</v>
-      </c>
-      <c r="S17">
-        <v>0.1064490094138813</v>
-      </c>
-      <c r="T17">
-        <v>0.1064490094138813</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="H25">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="I25">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="J25">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>116.0929133333333</v>
+      </c>
+      <c r="N25">
+        <v>348.27874</v>
+      </c>
+      <c r="O25">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="P25">
+        <v>0.2840166128953892</v>
+      </c>
+      <c r="Q25">
+        <v>21228.07706411946</v>
+      </c>
+      <c r="R25">
+        <v>191052.6935770752</v>
+      </c>
+      <c r="S25">
+        <v>0.1270535263986801</v>
+      </c>
+      <c r="T25">
+        <v>0.1270535263986801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="H26">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="I26">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="J26">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>182.8542023333333</v>
+      </c>
+      <c r="N26">
+        <v>548.5626070000001</v>
+      </c>
+      <c r="O26">
+        <v>0.447345403860151</v>
+      </c>
+      <c r="P26">
+        <v>0.4473454038601511</v>
+      </c>
+      <c r="Q26">
+        <v>33435.65931095961</v>
+      </c>
+      <c r="R26">
+        <v>300920.9337986365</v>
+      </c>
+      <c r="S26">
+        <v>0.2001179103548016</v>
+      </c>
+      <c r="T26">
+        <v>0.2001179103548017</v>
       </c>
     </row>
   </sheetData>
